--- a/5. MBart50 Tranning/EXP 03/bleu_scores.xlsx
+++ b/5. MBart50 Tranning/EXP 03/bleu_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\S2S Research\Machine Translation ta-si\5. MBart50 Tranning\EXP 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D0D44C-B0DB-4B68-A204-A1FBD0B667C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68756666-AE99-4CA4-B6B0-E622CABC56EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2016" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +60,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -69,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,21 +89,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,7 +409,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -386,7 +419,7 @@
     <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -395,41 +428,49 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>12.748211</v>
+      <c r="B2" s="5">
+        <v>12.592358000000001</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>14.392443999999999</v>
+      <c r="B3" s="6">
+        <v>14.858947000000001</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>15.656869</v>
+      <c r="B4" s="6">
+        <v>15.577054</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>16.166633999999998</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>16.502095000000001</v>
+      </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
